--- a/testData/OpenCart-TestCases (1).xlsx
+++ b/testData/OpenCart-TestCases (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1800" windowWidth="29040" windowHeight="15990" tabRatio="936" activeTab="5"/>
+    <workbookView xWindow="20370" yWindow="-1800" windowWidth="29040" windowHeight="15990" tabRatio="936" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Vesion History" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4342" uniqueCount="2199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4369" uniqueCount="2206">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -8347,6 +8347,30 @@
   </si>
   <si>
     <t>the user does not receive email on its registered email address for the password reset link</t>
+  </si>
+  <si>
+    <t>Searched product is displayed in the search results "Imac"</t>
+  </si>
+  <si>
+    <t>There is no product that matches the search criteria is displayed in the search Results Page</t>
+  </si>
+  <si>
+    <t>Under Products meeting the search criteria "There is no product that matches the search criteria." is displayed</t>
+  </si>
+  <si>
+    <t>More than one product is displayed in the search results page</t>
+  </si>
+  <si>
+    <t>Proper placeholder text is displayed in the below fields:
+- Search text box field
+-Search Criteria text box field</t>
+  </si>
+  <si>
+    <t>Product matching the words having the text "ilife" in its descirption is displayed in the search results</t>
+  </si>
+  <si>
+    <t>1.Product is successfully displayed in the search results.
+2. There is no product that matches the search criteria 'is displayed in the Search Results Page</t>
   </si>
 </sst>
 </file>
@@ -10008,7 +10032,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -24931,8 +24955,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25838,8 +25862,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25907,599 +25931,653 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="66" t="s">
         <v>1221</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="66" t="s">
         <v>1917</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="H3" s="66" t="s">
+        <v>2199</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J3" s="66" t="s">
+        <v>2139</v>
+      </c>
+      <c r="K3" s="66"/>
+    </row>
+    <row r="4" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="66" t="s">
         <v>1222</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="66" t="s">
         <v>1918</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="H4" s="66" t="s">
+        <v>2200</v>
+      </c>
+      <c r="I4" s="66" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>2136</v>
+      </c>
+      <c r="K4" s="66"/>
+    </row>
+    <row r="5" spans="1:11" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="66" t="s">
         <v>1223</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="66" t="s">
         <v>1919</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="H5" s="66" t="s">
+        <v>2201</v>
+      </c>
+      <c r="I5" s="66" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J5" s="66" t="s">
+        <v>2139</v>
+      </c>
+      <c r="K5" s="66"/>
+    </row>
+    <row r="6" spans="1:11" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="66" t="s">
         <v>1242</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="66" t="s">
         <v>1917</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="H6" s="66" t="s">
+        <v>2199</v>
+      </c>
+      <c r="I6" s="66" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J6" s="66" t="s">
+        <v>2139</v>
+      </c>
+      <c r="K6" s="66"/>
+    </row>
+    <row r="7" spans="1:11" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66" t="s">
         <v>224</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="66" t="s">
         <v>1224</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="66" t="s">
         <v>1920</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="H7" s="66" t="s">
+        <v>2202</v>
+      </c>
+      <c r="I7" s="66" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J7" s="66" t="s">
+        <v>2139</v>
+      </c>
+      <c r="K7" s="66"/>
+    </row>
+    <row r="8" spans="1:11" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="66" t="s">
         <v>1225</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="66" t="s">
         <v>1919</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="H8" s="66" t="s">
+        <v>2203</v>
+      </c>
+      <c r="I8" s="66" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J8" s="66" t="s">
+        <v>2139</v>
+      </c>
+      <c r="K8" s="66"/>
+    </row>
+    <row r="9" spans="1:11" ht="192" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="66" t="s">
         <v>1226</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="66" t="s">
         <v>1921</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="14" t="s">
+      <c r="F9" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="H9" s="66" t="s">
+        <v>2199</v>
+      </c>
+      <c r="I9" s="66" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J9" s="66" t="s">
+        <v>2139</v>
+      </c>
+      <c r="K9" s="66"/>
+    </row>
+    <row r="10" spans="1:11" ht="232.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="66" t="s">
         <v>1227</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="66" t="s">
         <v>1922</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="H10" s="66" t="s">
+        <v>2204</v>
+      </c>
+      <c r="I10" s="66" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J10" s="66" t="s">
+        <v>2139</v>
+      </c>
+      <c r="K10" s="66"/>
+    </row>
+    <row r="11" spans="1:11" ht="334.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="66" t="s">
         <v>1228</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="66" t="s">
         <v>1923</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="H11" s="66" t="s">
+        <v>2205</v>
+      </c>
+      <c r="I11" s="66" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J11" s="66" t="s">
+        <v>2139</v>
+      </c>
+      <c r="K11" s="66"/>
+    </row>
+    <row r="12" spans="1:11" ht="306" x14ac:dyDescent="0.25">
+      <c r="A12" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="66" t="s">
         <v>1229</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="66" t="s">
         <v>1924</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" ht="153" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+    </row>
+    <row r="13" spans="1:11" ht="324" x14ac:dyDescent="0.25">
+      <c r="A13" s="66" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="66" t="s">
         <v>1230</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="66" t="s">
         <v>1925</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:11" ht="216.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+    </row>
+    <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="66" t="s">
         <v>1231</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="66" t="s">
         <v>1926</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="66" t="s">
         <v>243</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:11" ht="51" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+    </row>
+    <row r="15" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+      <c r="A15" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="66" t="s">
         <v>1232</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="66" t="s">
         <v>1927</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="15"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
     </row>
     <row r="16" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="66" t="s">
         <v>1233</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="66" t="s">
         <v>1928</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+    </row>
+    <row r="17" spans="1:11" ht="162" x14ac:dyDescent="0.25">
+      <c r="A17" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="66" t="s">
         <v>1234</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="66" t="s">
         <v>1929</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+    </row>
+    <row r="18" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+      <c r="A18" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="66" t="s">
         <v>1235</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="66" t="s">
         <v>1930</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="14" t="s">
+      <c r="F18" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+    </row>
+    <row r="19" spans="1:11" ht="72" x14ac:dyDescent="0.25">
+      <c r="A19" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="66" t="s">
         <v>1236</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="66" t="s">
         <v>1931</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="14" t="s">
+      <c r="F19" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="1:11" ht="51" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+    </row>
+    <row r="20" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+      <c r="A20" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="66" t="s">
         <v>1237</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="15"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
     </row>
     <row r="21" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="66" t="s">
         <v>257</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="66" t="s">
         <v>1238</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="66" t="s">
         <v>1932</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="14" t="s">
+      <c r="F21" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+    </row>
+    <row r="22" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+      <c r="A22" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="66" t="s">
         <v>1239</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="14" t="s">
+      <c r="F22" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="15"/>
-    </row>
-    <row r="23" spans="1:11" ht="51" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+    </row>
+    <row r="23" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="66" t="s">
         <v>263</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="66" t="s">
         <v>1240</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="66" t="s">
         <v>1917</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="14" t="s">
+      <c r="F23" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="66" t="s">
         <v>265</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="15"/>
-    </row>
-    <row r="24" spans="1:11" ht="51" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+    </row>
+    <row r="24" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="66" t="s">
         <v>1241</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="66" t="s">
         <v>1917</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="14" t="s">
+      <c r="F24" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="66" t="s">
         <v>266</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="15"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -26537,7 +26615,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
